--- a/SiouxFalls.xlsx
+++ b/SiouxFalls.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,31 +477,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0696692215136106</v>
+        <v>0.2625545301021742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0660859158970305</v>
+        <v>0.2558892490430404</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0800489448211413</v>
+        <v>0.2816432074793905</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0718409851833241</v>
+        <v>0.2666807126381359</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0690908121326948</v>
+        <v>0.2618166299175891</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06466824980124899</v>
+        <v>0.2529359222967349</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07583714821939989</v>
+        <v>0.274477945828954</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0756274960203525</v>
+        <v>0.2732280359298519</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1008330813638904</v>
+        <v>0.3143219081563559</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3844243915044076</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.406917037669147</v>
       </c>
     </row>
     <row r="3">
@@ -505,31 +517,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07057433972475879</v>
+        <v>0.2635499265842974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0612253471607143</v>
+        <v>0.2459144279315551</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0823578944634771</v>
+        <v>0.2856614799310665</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0683574894039518</v>
+        <v>0.2576056607517867</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06928356801590441</v>
+        <v>0.261854672286142</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0613154657789286</v>
+        <v>0.2462263878782586</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0824113235514476</v>
+        <v>0.2847727129629375</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0863118731785594</v>
+        <v>0.2874039289128701</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1087561972119314</v>
+        <v>0.3257592134169115</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3686907696525031</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4373774226770425</v>
       </c>
     </row>
     <row r="4">
@@ -539,31 +557,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0734100607</v>
+        <v>0.0931802228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.083109087</v>
+        <v>0.08027714750000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1027486195</v>
+        <v>0.1016835669999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08702584919999989</v>
+        <v>0.0817307827</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0851634247</v>
+        <v>0.0803645081</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0754904327999999</v>
+        <v>0.0729018759</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1109616277</v>
+        <v>0.1207985122</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1116288613999999</v>
+        <v>0.1016390640999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1613116625</v>
+        <v>0.1411125189999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2935182652</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.31753247</v>
       </c>
     </row>
     <row r="5">
@@ -581,6 +605,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -593,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +655,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -663,6 +695,12 @@
       <c r="J2" t="n">
         <v>0.0684424546959566</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.1074802155343376</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.120684492923483</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -697,6 +735,12 @@
       <c r="J3" t="n">
         <v>0.0714384290519169</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.09997640917700761</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1299456841357961</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -705,31 +749,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0535476511</v>
+        <v>0.0684090368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0578213071</v>
+        <v>0.0600377609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07100848529999999</v>
+        <v>0.07269875770000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0636165253</v>
+        <v>0.060663232</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0619909453</v>
+        <v>0.0583177345999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.056049073</v>
+        <v>0.0549443642</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0811600378</v>
+        <v>0.090212321</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07939264259999999</v>
+        <v>0.072609058</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1122290686</v>
+        <v>0.1009176085</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1898190124</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2075290744</v>
       </c>
     </row>
     <row r="5">
@@ -747,6 +797,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -759,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +847,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -829,6 +887,12 @@
       <c r="J2" t="n">
         <v>0.7248253785978435</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.7717996261502256</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.747231183550802</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -863,6 +927,12 @@
       <c r="J3" t="n">
         <v>0.6717100850149893</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.8110856770122826</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5740635610871423</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -871,31 +941,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7043691366174354</v>
+        <v>0.5276078206847324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6031258463794019</v>
+        <v>0.5441626380276131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6714957530153449</v>
+        <v>0.6577447940990476</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6393921613438367</v>
+        <v>0.6658037473331341</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6791334243431228</v>
+        <v>0.6987424447791688</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6214579646338925</v>
+        <v>0.6297833987724092</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4702035339930965</v>
+        <v>0.3817421369977314</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5173128884359641</v>
+        <v>0.5905979410637359</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3390176394967313</v>
+        <v>0.4945730631194925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4006812892441047</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2098669797137494</v>
       </c>
     </row>
     <row r="5">
@@ -913,6 +989,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
